--- a/trunk/tables/Grille SIN V2015.xlsx
+++ b/trunk/tables/Grille SIN V2015.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="4245"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="4245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identification projet" sheetId="1" r:id="rId1"/>
     <sheet name="Notation Candidat 1" sheetId="8" r:id="rId2"/>
-    <sheet name="Notation Candidat  2" sheetId="9" r:id="rId3"/>
+    <sheet name="Notation Candidat 2" sheetId="9" r:id="rId3"/>
     <sheet name="Notation Candidat 3" sheetId="10" r:id="rId4"/>
     <sheet name="Notation Candidat 4" sheetId="11" r:id="rId5"/>
     <sheet name="Notation Candidat 5" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn_Print_Area_1" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_1" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Notation Candidat  2'!$A$1:$J$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Notation Candidat 1'!$A$1:$J$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Notation Candidat 2'!$A$1:$J$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Notation Candidat 3'!$A$1:$J$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Notation Candidat 4'!$A$1:$J$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Notation Candidat 5'!$A$1:$J$60</definedName>
@@ -1984,12 +1984,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2005,8 +1999,114 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2050,106 +2150,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2571,7 +2571,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2615,7 +2615,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2639,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2652,10 +2652,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="143"/>
+      <c r="A1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2714,10 +2714,10 @@
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="142"/>
+      <c r="B10" s="146"/>
     </row>
     <row r="11" spans="1:2" ht="18.2" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -2732,10 +2732,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="142"/>
+      <c r="B13" s="146"/>
     </row>
     <row r="14" spans="1:2" ht="18.2" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -2750,10 +2750,10 @@
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="142"/>
+      <c r="B16" s="146"/>
     </row>
     <row r="17" spans="1:2" ht="18.2" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -2768,10 +2768,10 @@
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="142"/>
+      <c r="B19" s="146"/>
     </row>
     <row r="20" spans="1:2" ht="18.2" customHeight="1">
       <c r="A20" s="5" t="s">
@@ -2786,10 +2786,10 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="142"/>
+      <c r="B22" s="146"/>
     </row>
     <row r="23" spans="1:2" ht="18.2" customHeight="1">
       <c r="A23" s="5" t="s">
@@ -2804,95 +2804,95 @@
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="142"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="146"/>
-      <c r="B26" s="146"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="144"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="146"/>
-      <c r="B27" s="146"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="144"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="146"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="144"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="146"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="144"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="146"/>
-      <c r="B30" s="146"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="144"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="146"/>
-      <c r="B31" s="146"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="144"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="146"/>
-      <c r="B32" s="146"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="144"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="146"/>
-      <c r="B33" s="146"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="144"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="144"/>
+      <c r="B34" s="142"/>
       <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="146"/>
-      <c r="B35" s="146"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="146"/>
-      <c r="B36" s="146"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="146"/>
-      <c r="B37" s="146"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="146"/>
-      <c r="B38" s="146"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="144"/>
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="144"/>
       <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146"/>
+      <c r="A40" s="144"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="146"/>
-      <c r="B41" s="146"/>
+      <c r="A41" s="144"/>
+      <c r="B41" s="144"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="146"/>
-      <c r="B42" s="146"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="144"/>
       <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:9" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="144" t="s">
+      <c r="A43" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="144"/>
+      <c r="B43" s="142"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2902,8 +2902,8 @@
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1">
-      <c r="A44" s="147"/>
-      <c r="B44" s="147"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="145"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2913,8 +2913,8 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" s="10" customFormat="1">
-      <c r="A45" s="147"/>
-      <c r="B45" s="147"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2924,8 +2924,8 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" s="10" customFormat="1">
-      <c r="A46" s="147"/>
-      <c r="B46" s="147"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="145"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -2935,8 +2935,8 @@
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" s="10" customFormat="1">
-      <c r="A47" s="147"/>
-      <c r="B47" s="147"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2946,8 +2946,8 @@
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" s="10" customFormat="1">
-      <c r="A48" s="147"/>
-      <c r="B48" s="147"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="145"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -2956,8 +2956,8 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" s="10" customFormat="1">
-      <c r="A49" s="147"/>
-      <c r="B49" s="147"/>
+      <c r="A49" s="145"/>
+      <c r="B49" s="145"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -2966,8 +2966,8 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1">
-      <c r="A50" s="147"/>
-      <c r="B50" s="147"/>
+      <c r="A50" s="145"/>
+      <c r="B50" s="145"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -2976,8 +2976,8 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1">
-      <c r="A51" s="147"/>
-      <c r="B51" s="147"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="145"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2986,10 +2986,10 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="144" t="s">
+      <c r="A52" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="144"/>
+      <c r="B52" s="142"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -2998,8 +2998,8 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" s="10" customFormat="1">
-      <c r="A53" s="145"/>
-      <c r="B53" s="145"/>
+      <c r="A53" s="143"/>
+      <c r="B53" s="143"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -3008,8 +3008,8 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" s="10" customFormat="1">
-      <c r="A54" s="145"/>
-      <c r="B54" s="145"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="143"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -3018,8 +3018,8 @@
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" s="10" customFormat="1">
-      <c r="A55" s="145"/>
-      <c r="B55" s="145"/>
+      <c r="A55" s="143"/>
+      <c r="B55" s="143"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -3028,8 +3028,8 @@
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" s="10" customFormat="1">
-      <c r="A56" s="145"/>
-      <c r="B56" s="145"/>
+      <c r="A56" s="143"/>
+      <c r="B56" s="143"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -3038,8 +3038,8 @@
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" s="10" customFormat="1">
-      <c r="A57" s="145"/>
-      <c r="B57" s="145"/>
+      <c r="A57" s="143"/>
+      <c r="B57" s="143"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -3048,8 +3048,8 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" s="10" customFormat="1">
-      <c r="A58" s="145"/>
-      <c r="B58" s="145"/>
+      <c r="A58" s="143"/>
+      <c r="B58" s="143"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -3058,8 +3058,8 @@
       <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9" s="10" customFormat="1">
-      <c r="A59" s="145"/>
-      <c r="B59" s="145"/>
+      <c r="A59" s="143"/>
+      <c r="B59" s="143"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -3068,8 +3068,8 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" s="10" customFormat="1">
-      <c r="A60" s="145"/>
-      <c r="B60" s="145"/>
+      <c r="A60" s="143"/>
+      <c r="B60" s="143"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -3080,6 +3080,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B60"/>
     <mergeCell ref="A25:B25"/>
@@ -3088,12 +3094,6 @@
     <mergeCell ref="A35:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B51"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3202,10 +3202,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="96" t="s">
         <v>25</v>
       </c>
@@ -3239,16 +3239,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="186"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="31"/>
       <c r="J5" s="85">
         <v>0.4</v>
@@ -3267,10 +3267,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="158" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -3288,7 +3288,7 @@
       <c r="J6" s="83">
         <v>1</v>
       </c>
-      <c r="K6" s="189">
+      <c r="K6" s="148">
         <f>SUM(M6:M9)</f>
         <v>0</v>
       </c>
@@ -3307,8 +3307,8 @@
       <c r="Q6" s="86"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="92" t="s">
         <v>65</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="J7" s="83">
         <v>1</v>
       </c>
-      <c r="K7" s="190"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3339,8 +3339,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="J8" s="83">
         <v>1</v>
       </c>
-      <c r="K8" s="190"/>
+      <c r="K8" s="149"/>
       <c r="L8" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3371,8 +3371,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="92" t="s">
         <v>67</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="J9" s="83">
         <v>1</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3403,10 +3403,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="160" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -3424,7 +3424,7 @@
       <c r="J10" s="83">
         <v>1</v>
       </c>
-      <c r="K10" s="189">
+      <c r="K10" s="148">
         <f>SUM(M10:M12)</f>
         <v>0</v>
       </c>
@@ -3442,8 +3442,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="92" t="s">
         <v>70</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J11" s="83">
         <v>1</v>
       </c>
-      <c r="K11" s="190"/>
+      <c r="K11" s="149"/>
       <c r="L11" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3474,8 +3474,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="37" t="s">
         <v>71</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="J12" s="83">
         <v>1</v>
       </c>
-      <c r="K12" s="190"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3506,10 +3506,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="92" t="s">
@@ -3527,7 +3527,7 @@
       <c r="J13" s="83">
         <v>1</v>
       </c>
-      <c r="K13" s="189">
+      <c r="K13" s="148">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -3545,8 +3545,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="181"/>
-      <c r="B14" s="177"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="69" t="s">
         <v>74</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="J14" s="83">
         <v>1</v>
       </c>
-      <c r="K14" s="190"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3577,8 +3577,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A15" s="181"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="92" t="s">
         <v>75</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="J15" s="83">
         <v>1</v>
       </c>
-      <c r="K15" s="191"/>
+      <c r="K15" s="150"/>
       <c r="L15" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3609,16 +3609,16 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="33"/>
       <c r="J16" s="85">
         <v>0.4</v>
@@ -3638,10 +3638,10 @@
       <c r="O16" s="119"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="165" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="93" t="s">
@@ -3659,7 +3659,7 @@
       <c r="J17" s="83">
         <v>1</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="151">
         <f>SUM(M17:M19)</f>
         <v>0</v>
       </c>
@@ -3677,8 +3677,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="182"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="92" t="s">
         <v>78</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="J18" s="83">
         <v>1</v>
       </c>
-      <c r="K18" s="192"/>
+      <c r="K18" s="151"/>
       <c r="L18" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3709,8 +3709,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="182"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="94" t="s">
         <v>79</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="J19" s="83">
         <v>1</v>
       </c>
-      <c r="K19" s="192"/>
+      <c r="K19" s="151"/>
       <c r="L19" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3741,10 +3741,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="160" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="92" t="s">
@@ -3762,7 +3762,7 @@
       <c r="J20" s="83">
         <v>1</v>
       </c>
-      <c r="K20" s="192">
+      <c r="K20" s="151">
         <f>SUM(M20:M22)</f>
         <v>0</v>
       </c>
@@ -3780,8 +3780,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="95" t="s">
         <v>82</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="J21" s="83">
         <v>1</v>
       </c>
-      <c r="K21" s="192"/>
+      <c r="K21" s="151"/>
       <c r="L21" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3812,8 +3812,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="92" t="s">
         <v>83</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="J22" s="83">
         <v>1</v>
       </c>
-      <c r="K22" s="192"/>
+      <c r="K22" s="151"/>
       <c r="L22" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3844,10 +3844,10 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="160" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="95" t="s">
@@ -3865,7 +3865,7 @@
       <c r="J23" s="83">
         <v>1</v>
       </c>
-      <c r="K23" s="192">
+      <c r="K23" s="151">
         <f>SUM(M23:M24)</f>
         <v>0</v>
       </c>
@@ -3883,8 +3883,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="92" t="s">
         <v>86</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="J24" s="83">
         <v>1</v>
       </c>
-      <c r="K24" s="192"/>
+      <c r="K24" s="151"/>
       <c r="L24" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3915,10 +3915,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="160" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -3936,7 +3936,7 @@
       <c r="J25" s="83">
         <v>1</v>
       </c>
-      <c r="K25" s="192">
+      <c r="K25" s="151">
         <f>SUM(M25:M28)</f>
         <v>0</v>
       </c>
@@ -3954,8 +3954,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="92" t="s">
         <v>89</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="J26" s="83">
         <v>1</v>
       </c>
-      <c r="K26" s="192"/>
+      <c r="K26" s="151"/>
       <c r="L26" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3986,8 +3986,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="95" t="s">
         <v>90</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="J27" s="83">
         <v>1</v>
       </c>
-      <c r="K27" s="192"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="92" t="s">
         <v>91</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="J28" s="83">
         <v>1</v>
       </c>
-      <c r="K28" s="192"/>
+      <c r="K28" s="151"/>
       <c r="L28" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -4050,16 +4050,16 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="180"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="164"/>
       <c r="I29" s="33"/>
       <c r="J29" s="85">
         <v>0.2</v>
@@ -4079,10 +4079,10 @@
       <c r="O29" s="119"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A30" s="176" t="s">
+      <c r="A30" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="160" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="95" t="s">
@@ -4100,7 +4100,7 @@
       <c r="J30" s="84">
         <v>1</v>
       </c>
-      <c r="K30" s="148">
+      <c r="K30" s="152">
         <f>SUM(M30:M32)</f>
         <v>0</v>
       </c>
@@ -4118,8 +4118,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A31" s="176"/>
-      <c r="B31" s="177"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="92" t="s">
         <v>99</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="J31" s="84">
         <v>1</v>
       </c>
-      <c r="K31" s="148"/>
+      <c r="K31" s="152"/>
       <c r="L31" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4150,8 +4150,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="176"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="95" t="s">
         <v>100</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="J32" s="84">
         <v>1</v>
       </c>
-      <c r="K32" s="148"/>
+      <c r="K32" s="152"/>
       <c r="L32" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4182,10 +4182,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="168" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="92" t="s">
@@ -4203,7 +4203,7 @@
       <c r="J33" s="84">
         <v>1</v>
       </c>
-      <c r="K33" s="148">
+      <c r="K33" s="152">
         <f>SUM(M33:M37)</f>
         <v>0</v>
       </c>
@@ -4221,8 +4221,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="181"/>
-      <c r="B34" s="165"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="95" t="s">
         <v>65</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="J34" s="84">
         <v>1</v>
       </c>
-      <c r="K34" s="148"/>
+      <c r="K34" s="152"/>
       <c r="L34" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4253,8 +4253,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="181"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="92" t="s">
         <v>103</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="J35" s="84">
         <v>1</v>
       </c>
-      <c r="K35" s="148"/>
+      <c r="K35" s="152"/>
       <c r="L35" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4285,8 +4285,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="165"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="95" t="s">
         <v>104</v>
       </c>
@@ -4302,7 +4302,7 @@
       <c r="J36" s="84">
         <v>1</v>
       </c>
-      <c r="K36" s="148"/>
+      <c r="K36" s="152"/>
       <c r="L36" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4317,8 +4317,8 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A37" s="181"/>
-      <c r="B37" s="165"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="92" t="s">
         <v>105</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="J37" s="84">
         <v>1</v>
       </c>
-      <c r="K37" s="148"/>
+      <c r="K37" s="152"/>
       <c r="L37" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4349,10 +4349,10 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -4370,7 +4370,7 @@
       <c r="J38" s="84">
         <v>1</v>
       </c>
-      <c r="K38" s="148">
+      <c r="K38" s="152">
         <f>SUM(M38:M40)</f>
         <v>0</v>
       </c>
@@ -4388,8 +4388,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="165"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="92" t="s">
         <v>108</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="J39" s="84">
         <v>1</v>
       </c>
-      <c r="K39" s="148"/>
+      <c r="K39" s="152"/>
       <c r="L39" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4420,8 +4420,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A40" s="164"/>
-      <c r="B40" s="165"/>
+      <c r="A40" s="171"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="95" t="s">
         <v>109</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="J40" s="84">
         <v>1</v>
       </c>
-      <c r="K40" s="148"/>
+      <c r="K40" s="152"/>
       <c r="L40" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4452,10 +4452,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="178" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="92" t="s">
@@ -4473,7 +4473,7 @@
       <c r="J41" s="84">
         <v>1</v>
       </c>
-      <c r="K41" s="148">
+      <c r="K41" s="152">
         <f>SUM(M41:M43)</f>
         <v>0</v>
       </c>
@@ -4491,8 +4491,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A42" s="171"/>
-      <c r="B42" s="173"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="95" t="s">
         <v>95</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="J42" s="84">
         <v>1</v>
       </c>
-      <c r="K42" s="148"/>
+      <c r="K42" s="152"/>
       <c r="L42" s="118">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -4523,8 +4523,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A43" s="172"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="110" t="s">
         <v>96</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="J43" s="84">
         <v>1</v>
       </c>
-      <c r="K43" s="148"/>
+      <c r="K43" s="152"/>
       <c r="L43" s="118">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -4558,13 +4558,13 @@
       <c r="C44" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="166">
+      <c r="E44" s="167">
         <f>L5/SUM(J6:J15)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
       <c r="I44" s="33" t="str">
         <f>(IF(E44&lt;0.5,"◄",""))</f>
         <v/>
@@ -4584,18 +4584,18 @@
       <c r="C45" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="166">
+      <c r="E45" s="167">
         <f>L16/SUM(J17:J28)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
       <c r="I45" s="33" t="str">
         <f>(IF(E45&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J45" s="175"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="81"/>
       <c r="L45" s="120"/>
     </row>
@@ -4603,18 +4603,18 @@
       <c r="C46" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="166">
+      <c r="E46" s="167">
         <f>L29/SUM(J30:J43)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
       <c r="I46" s="33" t="str">
         <f>(IF(E46&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J46" s="175"/>
+      <c r="J46" s="166"/>
       <c r="K46" s="81"/>
       <c r="L46" s="120"/>
     </row>
@@ -4623,15 +4623,15 @@
         <v>48</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="167" t="str">
+      <c r="E47" s="172" t="str">
         <f>IF(OR(E44&lt;0.5,E45&lt;0.5,E46&lt;0.5),"Tx&lt;50",IF(O44&lt;&gt;36,"Erreur",(K5+K16+K29)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F47" s="167"/>
-      <c r="G47" s="168" t="s">
+      <c r="F47" s="172"/>
+      <c r="G47" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="168"/>
+      <c r="H47" s="173"/>
       <c r="I47" s="51"/>
     </row>
     <row r="48" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -4639,81 +4639,81 @@
         <v>51</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="170" t="s">
+      <c r="E48" s="174"/>
+      <c r="F48" s="174"/>
+      <c r="G48" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="170"/>
+      <c r="H48" s="175"/>
       <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="C49" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="161">
+      <c r="E49" s="192">
         <f>IF(V44&lt;&gt;0,"",E48*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="161"/>
-      <c r="G49" s="162">
+      <c r="F49" s="192"/>
+      <c r="G49" s="169">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H49" s="162"/>
+      <c r="H49" s="169"/>
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A50" s="151" t="s">
+      <c r="A50" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
       <c r="I50" s="53"/>
     </row>
     <row r="51" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="152" t="str">
+      <c r="C51" s="183" t="str">
         <f>(IF(O44&gt;36,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
       <c r="I51" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="153" t="s">
+      <c r="A52" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="185"/>
       <c r="I52" s="56"/>
     </row>
     <row r="53" spans="1:9" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A53" s="155"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="186"/>
       <c r="I53" s="57"/>
     </row>
     <row r="54" spans="1:9" ht="7.5" customHeight="1" thickBot="1">
@@ -4728,57 +4728,57 @@
       <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A55" s="156" t="s">
+      <c r="A55" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="156"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="62"/>
-      <c r="E55" s="157" t="s">
+      <c r="E55" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
       <c r="I55" s="63"/>
     </row>
     <row r="56" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A56" s="158"/>
-      <c r="B56" s="158"/>
+      <c r="A56" s="189"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="64"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A57" s="158"/>
-      <c r="B57" s="158"/>
+      <c r="A57" s="189"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="64"/>
     </row>
     <row r="58" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A58" s="160"/>
-      <c r="B58" s="160"/>
+      <c r="A58" s="191"/>
+      <c r="B58" s="191"/>
       <c r="C58" s="64"/>
     </row>
     <row r="59" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A59" s="158"/>
-      <c r="B59" s="158"/>
+      <c r="A59" s="189"/>
+      <c r="B59" s="189"/>
       <c r="C59" s="64"/>
     </row>
     <row r="60" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
+      <c r="A60" s="180"/>
+      <c r="B60" s="180"/>
       <c r="C60" s="66"/>
-      <c r="E60" s="150">
+      <c r="E60" s="181">
         <v>41892</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
+      <c r="F60" s="181"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="181"/>
       <c r="I60" s="68" t="s">
         <v>61</v>
       </c>
@@ -4789,51 +4789,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
     <mergeCell ref="K41:K43"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="E60:H60"/>
@@ -4850,6 +4805,51 @@
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K33:K37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
@@ -4872,7 +4872,7 @@
   </sheetPr>
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4958,10 +4958,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="96" t="s">
         <v>25</v>
       </c>
@@ -4995,16 +4995,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="186"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="31"/>
       <c r="J5" s="85">
         <v>0.4</v>
@@ -5023,10 +5023,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="158" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -5044,7 +5044,7 @@
       <c r="J6" s="83">
         <v>1</v>
       </c>
-      <c r="K6" s="189">
+      <c r="K6" s="148">
         <f>SUM(M6:M9)</f>
         <v>0</v>
       </c>
@@ -5063,8 +5063,8 @@
       <c r="Q6" s="86"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="92" t="s">
         <v>65</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="J7" s="83">
         <v>1</v>
       </c>
-      <c r="K7" s="190"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5095,8 +5095,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="J8" s="83">
         <v>1</v>
       </c>
-      <c r="K8" s="190"/>
+      <c r="K8" s="149"/>
       <c r="L8" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5127,8 +5127,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="92" t="s">
         <v>67</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="J9" s="83">
         <v>1</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5159,10 +5159,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="160" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5180,7 +5180,7 @@
       <c r="J10" s="83">
         <v>1</v>
       </c>
-      <c r="K10" s="189">
+      <c r="K10" s="148">
         <f>SUM(M10:M12)</f>
         <v>0</v>
       </c>
@@ -5198,8 +5198,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="92" t="s">
         <v>70</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="J11" s="83">
         <v>1</v>
       </c>
-      <c r="K11" s="190"/>
+      <c r="K11" s="149"/>
       <c r="L11" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5230,8 +5230,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="37" t="s">
         <v>71</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="J12" s="83">
         <v>1</v>
       </c>
-      <c r="K12" s="190"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5262,10 +5262,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="92" t="s">
@@ -5283,7 +5283,7 @@
       <c r="J13" s="83">
         <v>1</v>
       </c>
-      <c r="K13" s="189">
+      <c r="K13" s="148">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -5301,8 +5301,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="181"/>
-      <c r="B14" s="177"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="69" t="s">
         <v>74</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="J14" s="83">
         <v>1</v>
       </c>
-      <c r="K14" s="190"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5333,8 +5333,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A15" s="181"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="92" t="s">
         <v>75</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="J15" s="83">
         <v>1</v>
       </c>
-      <c r="K15" s="191"/>
+      <c r="K15" s="150"/>
       <c r="L15" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5365,16 +5365,16 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="33"/>
       <c r="J16" s="85">
         <v>0.4</v>
@@ -5394,10 +5394,10 @@
       <c r="O16" s="119"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="165" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="93" t="s">
@@ -5415,7 +5415,7 @@
       <c r="J17" s="83">
         <v>1</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="151">
         <f>SUM(M17:M19)</f>
         <v>0</v>
       </c>
@@ -5433,8 +5433,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="182"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="92" t="s">
         <v>78</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="J18" s="83">
         <v>1</v>
       </c>
-      <c r="K18" s="192"/>
+      <c r="K18" s="151"/>
       <c r="L18" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5465,8 +5465,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="182"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="94" t="s">
         <v>79</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="J19" s="83">
         <v>1</v>
       </c>
-      <c r="K19" s="192"/>
+      <c r="K19" s="151"/>
       <c r="L19" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5497,10 +5497,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="160" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="92" t="s">
@@ -5518,7 +5518,7 @@
       <c r="J20" s="83">
         <v>1</v>
       </c>
-      <c r="K20" s="192">
+      <c r="K20" s="151">
         <f>SUM(M20:M22)</f>
         <v>0</v>
       </c>
@@ -5536,8 +5536,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="95" t="s">
         <v>82</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="J21" s="83">
         <v>1</v>
       </c>
-      <c r="K21" s="192"/>
+      <c r="K21" s="151"/>
       <c r="L21" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5568,8 +5568,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="92" t="s">
         <v>83</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="J22" s="83">
         <v>1</v>
       </c>
-      <c r="K22" s="192"/>
+      <c r="K22" s="151"/>
       <c r="L22" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5600,10 +5600,10 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="160" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="95" t="s">
@@ -5621,7 +5621,7 @@
       <c r="J23" s="83">
         <v>1</v>
       </c>
-      <c r="K23" s="192">
+      <c r="K23" s="151">
         <f>SUM(M23:M24)</f>
         <v>0</v>
       </c>
@@ -5639,8 +5639,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="92" t="s">
         <v>86</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="J24" s="83">
         <v>1</v>
       </c>
-      <c r="K24" s="192"/>
+      <c r="K24" s="151"/>
       <c r="L24" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5671,10 +5671,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="160" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -5692,7 +5692,7 @@
       <c r="J25" s="83">
         <v>1</v>
       </c>
-      <c r="K25" s="192">
+      <c r="K25" s="151">
         <f>SUM(M25:M28)</f>
         <v>0</v>
       </c>
@@ -5710,8 +5710,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="92" t="s">
         <v>89</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="J26" s="83">
         <v>1</v>
       </c>
-      <c r="K26" s="192"/>
+      <c r="K26" s="151"/>
       <c r="L26" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5742,8 +5742,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="95" t="s">
         <v>90</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="J27" s="83">
         <v>1</v>
       </c>
-      <c r="K27" s="192"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5774,8 +5774,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="92" t="s">
         <v>91</v>
       </c>
@@ -5791,7 +5791,7 @@
       <c r="J28" s="83">
         <v>1</v>
       </c>
-      <c r="K28" s="192"/>
+      <c r="K28" s="151"/>
       <c r="L28" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5806,16 +5806,16 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="180"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="164"/>
       <c r="I29" s="33"/>
       <c r="J29" s="85">
         <v>0.2</v>
@@ -5835,10 +5835,10 @@
       <c r="O29" s="119"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A30" s="176" t="s">
+      <c r="A30" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="160" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="95" t="s">
@@ -5856,7 +5856,7 @@
       <c r="J30" s="84">
         <v>1</v>
       </c>
-      <c r="K30" s="148">
+      <c r="K30" s="152">
         <f>SUM(M30:M32)</f>
         <v>0</v>
       </c>
@@ -5874,8 +5874,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A31" s="176"/>
-      <c r="B31" s="177"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="92" t="s">
         <v>99</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="J31" s="84">
         <v>1</v>
       </c>
-      <c r="K31" s="148"/>
+      <c r="K31" s="152"/>
       <c r="L31" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -5906,8 +5906,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="176"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="95" t="s">
         <v>100</v>
       </c>
@@ -5923,7 +5923,7 @@
       <c r="J32" s="84">
         <v>1</v>
       </c>
-      <c r="K32" s="148"/>
+      <c r="K32" s="152"/>
       <c r="L32" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -5938,10 +5938,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="168" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="92" t="s">
@@ -5959,7 +5959,7 @@
       <c r="J33" s="84">
         <v>1</v>
       </c>
-      <c r="K33" s="148">
+      <c r="K33" s="152">
         <f>SUM(M33:M37)</f>
         <v>0</v>
       </c>
@@ -5977,8 +5977,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="181"/>
-      <c r="B34" s="165"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="95" t="s">
         <v>65</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="J34" s="84">
         <v>1</v>
       </c>
-      <c r="K34" s="148"/>
+      <c r="K34" s="152"/>
       <c r="L34" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6009,8 +6009,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="181"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="92" t="s">
         <v>103</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="J35" s="84">
         <v>1</v>
       </c>
-      <c r="K35" s="148"/>
+      <c r="K35" s="152"/>
       <c r="L35" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6041,8 +6041,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="165"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="95" t="s">
         <v>104</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="J36" s="84">
         <v>1</v>
       </c>
-      <c r="K36" s="148"/>
+      <c r="K36" s="152"/>
       <c r="L36" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6073,8 +6073,8 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A37" s="181"/>
-      <c r="B37" s="165"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="92" t="s">
         <v>105</v>
       </c>
@@ -6090,7 +6090,7 @@
       <c r="J37" s="84">
         <v>1</v>
       </c>
-      <c r="K37" s="148"/>
+      <c r="K37" s="152"/>
       <c r="L37" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6105,10 +6105,10 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -6126,7 +6126,7 @@
       <c r="J38" s="84">
         <v>1</v>
       </c>
-      <c r="K38" s="148">
+      <c r="K38" s="152">
         <f>SUM(M38:M40)</f>
         <v>0</v>
       </c>
@@ -6144,8 +6144,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="165"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="92" t="s">
         <v>108</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="J39" s="84">
         <v>1</v>
       </c>
-      <c r="K39" s="148"/>
+      <c r="K39" s="152"/>
       <c r="L39" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6176,8 +6176,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A40" s="164"/>
-      <c r="B40" s="165"/>
+      <c r="A40" s="171"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="95" t="s">
         <v>109</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="J40" s="84">
         <v>1</v>
       </c>
-      <c r="K40" s="148"/>
+      <c r="K40" s="152"/>
       <c r="L40" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6208,10 +6208,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="178" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="92" t="s">
@@ -6229,7 +6229,7 @@
       <c r="J41" s="84">
         <v>1</v>
       </c>
-      <c r="K41" s="148">
+      <c r="K41" s="152">
         <f>SUM(M41:M43)</f>
         <v>0</v>
       </c>
@@ -6247,8 +6247,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A42" s="171"/>
-      <c r="B42" s="173"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="95" t="s">
         <v>95</v>
       </c>
@@ -6264,7 +6264,7 @@
       <c r="J42" s="84">
         <v>1</v>
       </c>
-      <c r="K42" s="148"/>
+      <c r="K42" s="152"/>
       <c r="L42" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6279,8 +6279,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A43" s="172"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="110" t="s">
         <v>96</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="J43" s="84">
         <v>1</v>
       </c>
-      <c r="K43" s="148"/>
+      <c r="K43" s="152"/>
       <c r="L43" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6314,13 +6314,13 @@
       <c r="C44" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="166">
+      <c r="E44" s="167">
         <f>L5/SUM(J6:J15)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
       <c r="I44" s="33" t="str">
         <f>(IF(E44&lt;0.5,"◄",""))</f>
         <v/>
@@ -6340,18 +6340,18 @@
       <c r="C45" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="166">
+      <c r="E45" s="167">
         <f>L16/SUM(J17:J28)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
       <c r="I45" s="33" t="str">
         <f>(IF(E45&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J45" s="175"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="140"/>
       <c r="L45" s="120"/>
     </row>
@@ -6359,18 +6359,18 @@
       <c r="C46" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="166">
+      <c r="E46" s="167">
         <f>L29/SUM(J30:J43)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
       <c r="I46" s="33" t="str">
         <f>(IF(E46&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J46" s="175"/>
+      <c r="J46" s="166"/>
       <c r="K46" s="140"/>
       <c r="L46" s="120"/>
     </row>
@@ -6379,15 +6379,15 @@
         <v>48</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="167" t="str">
+      <c r="E47" s="172" t="str">
         <f>IF(OR(E44&lt;0.5,E45&lt;0.5,E46&lt;0.5),"Tx&lt;50",IF(O44&lt;&gt;36,"Erreur",(K5+K16+K29)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F47" s="167"/>
-      <c r="G47" s="168" t="s">
+      <c r="F47" s="172"/>
+      <c r="G47" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="168"/>
+      <c r="H47" s="173"/>
       <c r="I47" s="51"/>
     </row>
     <row r="48" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -6395,81 +6395,81 @@
         <v>51</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="170" t="s">
+      <c r="E48" s="174"/>
+      <c r="F48" s="174"/>
+      <c r="G48" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="170"/>
+      <c r="H48" s="175"/>
       <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="C49" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="161">
+      <c r="E49" s="192">
         <f>IF(V44&lt;&gt;0,"",E48*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="161"/>
-      <c r="G49" s="162">
+      <c r="F49" s="192"/>
+      <c r="G49" s="169">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H49" s="162"/>
+      <c r="H49" s="169"/>
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A50" s="151" t="s">
+      <c r="A50" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
       <c r="I50" s="53"/>
     </row>
     <row r="51" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="152" t="str">
+      <c r="C51" s="183" t="str">
         <f>(IF(O44&gt;36,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
       <c r="I51" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="153" t="s">
+      <c r="A52" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="185"/>
       <c r="I52" s="56"/>
     </row>
     <row r="53" spans="1:9" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A53" s="155"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="186"/>
       <c r="I53" s="57"/>
     </row>
     <row r="54" spans="1:9" ht="7.5" customHeight="1" thickBot="1">
@@ -6484,57 +6484,57 @@
       <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A55" s="156" t="s">
+      <c r="A55" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="156"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="62"/>
-      <c r="E55" s="157" t="s">
+      <c r="E55" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
       <c r="I55" s="63"/>
     </row>
     <row r="56" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A56" s="158"/>
-      <c r="B56" s="158"/>
+      <c r="A56" s="189"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="64"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A57" s="158"/>
-      <c r="B57" s="158"/>
+      <c r="A57" s="189"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="64"/>
     </row>
     <row r="58" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A58" s="160"/>
-      <c r="B58" s="160"/>
+      <c r="A58" s="191"/>
+      <c r="B58" s="191"/>
       <c r="C58" s="64"/>
     </row>
     <row r="59" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A59" s="158"/>
-      <c r="B59" s="158"/>
+      <c r="A59" s="189"/>
+      <c r="B59" s="189"/>
       <c r="C59" s="64"/>
     </row>
     <row r="60" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
+      <c r="A60" s="180"/>
+      <c r="B60" s="180"/>
       <c r="C60" s="66"/>
-      <c r="E60" s="150">
+      <c r="E60" s="181">
         <v>41892</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
+      <c r="F60" s="181"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="181"/>
       <c r="I60" s="68" t="s">
         <v>61</v>
       </c>
@@ -6545,6 +6545,53 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="E60:H60"/>
     <mergeCell ref="A50:H50"/>
@@ -6559,53 +6606,6 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="K6:K9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
@@ -6709,10 +6709,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="96" t="s">
         <v>25</v>
       </c>
@@ -6746,16 +6746,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="186"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="31"/>
       <c r="J5" s="85">
         <v>0.4</v>
@@ -6774,10 +6774,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="158" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -6795,7 +6795,7 @@
       <c r="J6" s="83">
         <v>1</v>
       </c>
-      <c r="K6" s="189">
+      <c r="K6" s="148">
         <f>SUM(M6:M9)</f>
         <v>0</v>
       </c>
@@ -6814,8 +6814,8 @@
       <c r="Q6" s="86"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="92" t="s">
         <v>65</v>
       </c>
@@ -6831,7 +6831,7 @@
       <c r="J7" s="83">
         <v>1</v>
       </c>
-      <c r="K7" s="190"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6846,8 +6846,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="J8" s="83">
         <v>1</v>
       </c>
-      <c r="K8" s="190"/>
+      <c r="K8" s="149"/>
       <c r="L8" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6878,8 +6878,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="92" t="s">
         <v>67</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="J9" s="83">
         <v>1</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6910,10 +6910,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="160" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -6931,7 +6931,7 @@
       <c r="J10" s="83">
         <v>1</v>
       </c>
-      <c r="K10" s="189">
+      <c r="K10" s="148">
         <f>SUM(M10:M12)</f>
         <v>0</v>
       </c>
@@ -6949,8 +6949,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="92" t="s">
         <v>70</v>
       </c>
@@ -6966,7 +6966,7 @@
       <c r="J11" s="83">
         <v>1</v>
       </c>
-      <c r="K11" s="190"/>
+      <c r="K11" s="149"/>
       <c r="L11" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6981,8 +6981,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="37" t="s">
         <v>71</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="J12" s="83">
         <v>1</v>
       </c>
-      <c r="K12" s="190"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7013,10 +7013,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="92" t="s">
@@ -7034,7 +7034,7 @@
       <c r="J13" s="83">
         <v>1</v>
       </c>
-      <c r="K13" s="189">
+      <c r="K13" s="148">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -7052,8 +7052,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="181"/>
-      <c r="B14" s="177"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="69" t="s">
         <v>74</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="J14" s="83">
         <v>1</v>
       </c>
-      <c r="K14" s="190"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7084,8 +7084,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A15" s="181"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="92" t="s">
         <v>75</v>
       </c>
@@ -7101,7 +7101,7 @@
       <c r="J15" s="83">
         <v>1</v>
       </c>
-      <c r="K15" s="191"/>
+      <c r="K15" s="150"/>
       <c r="L15" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7116,16 +7116,16 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="33"/>
       <c r="J16" s="85">
         <v>0.4</v>
@@ -7145,10 +7145,10 @@
       <c r="O16" s="119"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="165" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="93" t="s">
@@ -7166,7 +7166,7 @@
       <c r="J17" s="83">
         <v>1</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="151">
         <f>SUM(M17:M19)</f>
         <v>0</v>
       </c>
@@ -7184,8 +7184,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="182"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="92" t="s">
         <v>78</v>
       </c>
@@ -7201,7 +7201,7 @@
       <c r="J18" s="83">
         <v>1</v>
       </c>
-      <c r="K18" s="192"/>
+      <c r="K18" s="151"/>
       <c r="L18" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7216,8 +7216,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="182"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="94" t="s">
         <v>79</v>
       </c>
@@ -7233,7 +7233,7 @@
       <c r="J19" s="83">
         <v>1</v>
       </c>
-      <c r="K19" s="192"/>
+      <c r="K19" s="151"/>
       <c r="L19" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7248,10 +7248,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="160" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="92" t="s">
@@ -7269,7 +7269,7 @@
       <c r="J20" s="83">
         <v>1</v>
       </c>
-      <c r="K20" s="192">
+      <c r="K20" s="151">
         <f>SUM(M20:M22)</f>
         <v>0</v>
       </c>
@@ -7287,8 +7287,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="95" t="s">
         <v>82</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="J21" s="83">
         <v>1</v>
       </c>
-      <c r="K21" s="192"/>
+      <c r="K21" s="151"/>
       <c r="L21" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7319,8 +7319,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="92" t="s">
         <v>83</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="J22" s="83">
         <v>1</v>
       </c>
-      <c r="K22" s="192"/>
+      <c r="K22" s="151"/>
       <c r="L22" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7351,10 +7351,10 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="160" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="95" t="s">
@@ -7372,7 +7372,7 @@
       <c r="J23" s="83">
         <v>1</v>
       </c>
-      <c r="K23" s="192">
+      <c r="K23" s="151">
         <f>SUM(M23:M24)</f>
         <v>0</v>
       </c>
@@ -7390,8 +7390,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="92" t="s">
         <v>86</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="J24" s="83">
         <v>1</v>
       </c>
-      <c r="K24" s="192"/>
+      <c r="K24" s="151"/>
       <c r="L24" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7422,10 +7422,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="160" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -7443,7 +7443,7 @@
       <c r="J25" s="83">
         <v>1</v>
       </c>
-      <c r="K25" s="192">
+      <c r="K25" s="151">
         <f>SUM(M25:M28)</f>
         <v>0</v>
       </c>
@@ -7461,8 +7461,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="92" t="s">
         <v>89</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="J26" s="83">
         <v>1</v>
       </c>
-      <c r="K26" s="192"/>
+      <c r="K26" s="151"/>
       <c r="L26" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7493,8 +7493,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="95" t="s">
         <v>90</v>
       </c>
@@ -7510,7 +7510,7 @@
       <c r="J27" s="83">
         <v>1</v>
       </c>
-      <c r="K27" s="192"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7525,8 +7525,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="92" t="s">
         <v>91</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="J28" s="83">
         <v>1</v>
       </c>
-      <c r="K28" s="192"/>
+      <c r="K28" s="151"/>
       <c r="L28" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7557,16 +7557,16 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="180"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="164"/>
       <c r="I29" s="33"/>
       <c r="J29" s="85">
         <v>0.2</v>
@@ -7586,10 +7586,10 @@
       <c r="O29" s="119"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A30" s="176" t="s">
+      <c r="A30" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="160" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="95" t="s">
@@ -7607,7 +7607,7 @@
       <c r="J30" s="84">
         <v>1</v>
       </c>
-      <c r="K30" s="148">
+      <c r="K30" s="152">
         <f>SUM(M30:M32)</f>
         <v>0</v>
       </c>
@@ -7625,8 +7625,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A31" s="176"/>
-      <c r="B31" s="177"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="92" t="s">
         <v>99</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="J31" s="84">
         <v>1</v>
       </c>
-      <c r="K31" s="148"/>
+      <c r="K31" s="152"/>
       <c r="L31" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -7657,8 +7657,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="176"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="95" t="s">
         <v>100</v>
       </c>
@@ -7674,7 +7674,7 @@
       <c r="J32" s="84">
         <v>1</v>
       </c>
-      <c r="K32" s="148"/>
+      <c r="K32" s="152"/>
       <c r="L32" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -7689,10 +7689,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="168" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="92" t="s">
@@ -7710,7 +7710,7 @@
       <c r="J33" s="84">
         <v>1</v>
       </c>
-      <c r="K33" s="148">
+      <c r="K33" s="152">
         <f>SUM(M33:M37)</f>
         <v>0</v>
       </c>
@@ -7728,8 +7728,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="181"/>
-      <c r="B34" s="165"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="95" t="s">
         <v>65</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="J34" s="84">
         <v>1</v>
       </c>
-      <c r="K34" s="148"/>
+      <c r="K34" s="152"/>
       <c r="L34" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -7760,8 +7760,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="181"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="92" t="s">
         <v>103</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="J35" s="84">
         <v>1</v>
       </c>
-      <c r="K35" s="148"/>
+      <c r="K35" s="152"/>
       <c r="L35" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -7792,8 +7792,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="165"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="95" t="s">
         <v>104</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="J36" s="84">
         <v>1</v>
       </c>
-      <c r="K36" s="148"/>
+      <c r="K36" s="152"/>
       <c r="L36" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -7824,8 +7824,8 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A37" s="181"/>
-      <c r="B37" s="165"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="92" t="s">
         <v>105</v>
       </c>
@@ -7841,7 +7841,7 @@
       <c r="J37" s="84">
         <v>1</v>
       </c>
-      <c r="K37" s="148"/>
+      <c r="K37" s="152"/>
       <c r="L37" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -7856,10 +7856,10 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -7877,7 +7877,7 @@
       <c r="J38" s="84">
         <v>1</v>
       </c>
-      <c r="K38" s="148">
+      <c r="K38" s="152">
         <f>SUM(M38:M40)</f>
         <v>0</v>
       </c>
@@ -7895,8 +7895,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="165"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="92" t="s">
         <v>108</v>
       </c>
@@ -7912,7 +7912,7 @@
       <c r="J39" s="84">
         <v>1</v>
       </c>
-      <c r="K39" s="148"/>
+      <c r="K39" s="152"/>
       <c r="L39" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -7927,8 +7927,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A40" s="164"/>
-      <c r="B40" s="165"/>
+      <c r="A40" s="171"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="95" t="s">
         <v>109</v>
       </c>
@@ -7944,7 +7944,7 @@
       <c r="J40" s="84">
         <v>1</v>
       </c>
-      <c r="K40" s="148"/>
+      <c r="K40" s="152"/>
       <c r="L40" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -7959,10 +7959,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="178" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="92" t="s">
@@ -7980,7 +7980,7 @@
       <c r="J41" s="84">
         <v>1</v>
       </c>
-      <c r="K41" s="148">
+      <c r="K41" s="152">
         <f>SUM(M41:M43)</f>
         <v>0</v>
       </c>
@@ -7998,8 +7998,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A42" s="171"/>
-      <c r="B42" s="173"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="95" t="s">
         <v>95</v>
       </c>
@@ -8015,7 +8015,7 @@
       <c r="J42" s="84">
         <v>1</v>
       </c>
-      <c r="K42" s="148"/>
+      <c r="K42" s="152"/>
       <c r="L42" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -8030,8 +8030,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A43" s="172"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="110" t="s">
         <v>96</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="J43" s="84">
         <v>1</v>
       </c>
-      <c r="K43" s="148"/>
+      <c r="K43" s="152"/>
       <c r="L43" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -8065,13 +8065,13 @@
       <c r="C44" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="166">
+      <c r="E44" s="167">
         <f>L5/SUM(J6:J15)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
       <c r="I44" s="33" t="str">
         <f>(IF(E44&lt;0.5,"◄",""))</f>
         <v/>
@@ -8091,18 +8091,18 @@
       <c r="C45" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="166">
+      <c r="E45" s="167">
         <f>L16/SUM(J17:J28)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
       <c r="I45" s="33" t="str">
         <f>(IF(E45&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J45" s="175"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="140"/>
       <c r="L45" s="120"/>
     </row>
@@ -8110,18 +8110,18 @@
       <c r="C46" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="166">
+      <c r="E46" s="167">
         <f>L29/SUM(J30:J43)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
       <c r="I46" s="33" t="str">
         <f>(IF(E46&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J46" s="175"/>
+      <c r="J46" s="166"/>
       <c r="K46" s="140"/>
       <c r="L46" s="120"/>
     </row>
@@ -8130,15 +8130,15 @@
         <v>48</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="167" t="str">
+      <c r="E47" s="172" t="str">
         <f>IF(OR(E44&lt;0.5,E45&lt;0.5,E46&lt;0.5),"Tx&lt;50",IF(O44&lt;&gt;36,"Erreur",(K5+K16+K29)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F47" s="167"/>
-      <c r="G47" s="168" t="s">
+      <c r="F47" s="172"/>
+      <c r="G47" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="168"/>
+      <c r="H47" s="173"/>
       <c r="I47" s="51"/>
     </row>
     <row r="48" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -8146,81 +8146,81 @@
         <v>51</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="170" t="s">
+      <c r="E48" s="174"/>
+      <c r="F48" s="174"/>
+      <c r="G48" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="170"/>
+      <c r="H48" s="175"/>
       <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="C49" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="161">
+      <c r="E49" s="192">
         <f>IF(V44&lt;&gt;0,"",E48*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="161"/>
-      <c r="G49" s="162">
+      <c r="F49" s="192"/>
+      <c r="G49" s="169">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H49" s="162"/>
+      <c r="H49" s="169"/>
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A50" s="151" t="s">
+      <c r="A50" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
       <c r="I50" s="53"/>
     </row>
     <row r="51" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="152" t="str">
+      <c r="C51" s="183" t="str">
         <f>(IF(O44&gt;36,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
       <c r="I51" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="153" t="s">
+      <c r="A52" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="185"/>
       <c r="I52" s="56"/>
     </row>
     <row r="53" spans="1:9" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A53" s="155"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="186"/>
       <c r="I53" s="57"/>
     </row>
     <row r="54" spans="1:9" ht="7.5" customHeight="1" thickBot="1">
@@ -8235,57 +8235,57 @@
       <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A55" s="156" t="s">
+      <c r="A55" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="156"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="62"/>
-      <c r="E55" s="157" t="s">
+      <c r="E55" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
       <c r="I55" s="63"/>
     </row>
     <row r="56" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A56" s="158"/>
-      <c r="B56" s="158"/>
+      <c r="A56" s="189"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="64"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A57" s="158"/>
-      <c r="B57" s="158"/>
+      <c r="A57" s="189"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="64"/>
     </row>
     <row r="58" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A58" s="160"/>
-      <c r="B58" s="160"/>
+      <c r="A58" s="191"/>
+      <c r="B58" s="191"/>
       <c r="C58" s="64"/>
     </row>
     <row r="59" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A59" s="158"/>
-      <c r="B59" s="158"/>
+      <c r="A59" s="189"/>
+      <c r="B59" s="189"/>
       <c r="C59" s="64"/>
     </row>
     <row r="60" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
+      <c r="A60" s="180"/>
+      <c r="B60" s="180"/>
       <c r="C60" s="66"/>
-      <c r="E60" s="150">
+      <c r="E60" s="181">
         <v>41892</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
+      <c r="F60" s="181"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="181"/>
       <c r="I60" s="68" t="s">
         <v>61</v>
       </c>
@@ -8296,6 +8296,53 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="E60:H60"/>
     <mergeCell ref="A50:H50"/>
@@ -8310,53 +8357,6 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="K6:K9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
@@ -8460,10 +8460,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="96" t="s">
         <v>25</v>
       </c>
@@ -8497,16 +8497,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="186"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="31"/>
       <c r="J5" s="85">
         <v>0.4</v>
@@ -8525,10 +8525,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="158" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -8546,7 +8546,7 @@
       <c r="J6" s="83">
         <v>1</v>
       </c>
-      <c r="K6" s="189">
+      <c r="K6" s="148">
         <f>SUM(M6:M9)</f>
         <v>0</v>
       </c>
@@ -8565,8 +8565,8 @@
       <c r="Q6" s="86"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="92" t="s">
         <v>65</v>
       </c>
@@ -8582,7 +8582,7 @@
       <c r="J7" s="83">
         <v>1</v>
       </c>
-      <c r="K7" s="190"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8597,8 +8597,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="J8" s="83">
         <v>1</v>
       </c>
-      <c r="K8" s="190"/>
+      <c r="K8" s="149"/>
       <c r="L8" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8629,8 +8629,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="92" t="s">
         <v>67</v>
       </c>
@@ -8646,7 +8646,7 @@
       <c r="J9" s="83">
         <v>1</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8661,10 +8661,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="160" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -8682,7 +8682,7 @@
       <c r="J10" s="83">
         <v>1</v>
       </c>
-      <c r="K10" s="189">
+      <c r="K10" s="148">
         <f>SUM(M10:M12)</f>
         <v>0</v>
       </c>
@@ -8700,8 +8700,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="92" t="s">
         <v>70</v>
       </c>
@@ -8717,7 +8717,7 @@
       <c r="J11" s="83">
         <v>1</v>
       </c>
-      <c r="K11" s="190"/>
+      <c r="K11" s="149"/>
       <c r="L11" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8732,8 +8732,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="37" t="s">
         <v>71</v>
       </c>
@@ -8749,7 +8749,7 @@
       <c r="J12" s="83">
         <v>1</v>
       </c>
-      <c r="K12" s="190"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8764,10 +8764,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="92" t="s">
@@ -8785,7 +8785,7 @@
       <c r="J13" s="83">
         <v>1</v>
       </c>
-      <c r="K13" s="189">
+      <c r="K13" s="148">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -8803,8 +8803,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="181"/>
-      <c r="B14" s="177"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="69" t="s">
         <v>74</v>
       </c>
@@ -8820,7 +8820,7 @@
       <c r="J14" s="83">
         <v>1</v>
       </c>
-      <c r="K14" s="190"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8835,8 +8835,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A15" s="181"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="92" t="s">
         <v>75</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="J15" s="83">
         <v>1</v>
       </c>
-      <c r="K15" s="191"/>
+      <c r="K15" s="150"/>
       <c r="L15" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8867,16 +8867,16 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="33"/>
       <c r="J16" s="85">
         <v>0.4</v>
@@ -8896,10 +8896,10 @@
       <c r="O16" s="119"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="165" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="93" t="s">
@@ -8917,7 +8917,7 @@
       <c r="J17" s="83">
         <v>1</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="151">
         <f>SUM(M17:M19)</f>
         <v>0</v>
       </c>
@@ -8935,8 +8935,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="182"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="92" t="s">
         <v>78</v>
       </c>
@@ -8952,7 +8952,7 @@
       <c r="J18" s="83">
         <v>1</v>
       </c>
-      <c r="K18" s="192"/>
+      <c r="K18" s="151"/>
       <c r="L18" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8967,8 +8967,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="182"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="94" t="s">
         <v>79</v>
       </c>
@@ -8984,7 +8984,7 @@
       <c r="J19" s="83">
         <v>1</v>
       </c>
-      <c r="K19" s="192"/>
+      <c r="K19" s="151"/>
       <c r="L19" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8999,10 +8999,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="160" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="92" t="s">
@@ -9020,7 +9020,7 @@
       <c r="J20" s="83">
         <v>1</v>
       </c>
-      <c r="K20" s="192">
+      <c r="K20" s="151">
         <f>SUM(M20:M22)</f>
         <v>0</v>
       </c>
@@ -9038,8 +9038,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="95" t="s">
         <v>82</v>
       </c>
@@ -9055,7 +9055,7 @@
       <c r="J21" s="83">
         <v>1</v>
       </c>
-      <c r="K21" s="192"/>
+      <c r="K21" s="151"/>
       <c r="L21" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9070,8 +9070,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="92" t="s">
         <v>83</v>
       </c>
@@ -9087,7 +9087,7 @@
       <c r="J22" s="83">
         <v>1</v>
       </c>
-      <c r="K22" s="192"/>
+      <c r="K22" s="151"/>
       <c r="L22" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9102,10 +9102,10 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="160" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="95" t="s">
@@ -9123,7 +9123,7 @@
       <c r="J23" s="83">
         <v>1</v>
       </c>
-      <c r="K23" s="192">
+      <c r="K23" s="151">
         <f>SUM(M23:M24)</f>
         <v>0</v>
       </c>
@@ -9141,8 +9141,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="92" t="s">
         <v>86</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="J24" s="83">
         <v>1</v>
       </c>
-      <c r="K24" s="192"/>
+      <c r="K24" s="151"/>
       <c r="L24" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9173,10 +9173,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="160" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -9194,7 +9194,7 @@
       <c r="J25" s="83">
         <v>1</v>
       </c>
-      <c r="K25" s="192">
+      <c r="K25" s="151">
         <f>SUM(M25:M28)</f>
         <v>0</v>
       </c>
@@ -9212,8 +9212,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="92" t="s">
         <v>89</v>
       </c>
@@ -9229,7 +9229,7 @@
       <c r="J26" s="83">
         <v>1</v>
       </c>
-      <c r="K26" s="192"/>
+      <c r="K26" s="151"/>
       <c r="L26" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9244,8 +9244,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="95" t="s">
         <v>90</v>
       </c>
@@ -9261,7 +9261,7 @@
       <c r="J27" s="83">
         <v>1</v>
       </c>
-      <c r="K27" s="192"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9276,8 +9276,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="92" t="s">
         <v>91</v>
       </c>
@@ -9293,7 +9293,7 @@
       <c r="J28" s="83">
         <v>1</v>
       </c>
-      <c r="K28" s="192"/>
+      <c r="K28" s="151"/>
       <c r="L28" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9308,16 +9308,16 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="180"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="164"/>
       <c r="I29" s="33"/>
       <c r="J29" s="85">
         <v>0.2</v>
@@ -9337,10 +9337,10 @@
       <c r="O29" s="119"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A30" s="176" t="s">
+      <c r="A30" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="160" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="95" t="s">
@@ -9358,7 +9358,7 @@
       <c r="J30" s="84">
         <v>1</v>
       </c>
-      <c r="K30" s="148">
+      <c r="K30" s="152">
         <f>SUM(M30:M32)</f>
         <v>0</v>
       </c>
@@ -9376,8 +9376,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A31" s="176"/>
-      <c r="B31" s="177"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="92" t="s">
         <v>99</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="J31" s="84">
         <v>1</v>
       </c>
-      <c r="K31" s="148"/>
+      <c r="K31" s="152"/>
       <c r="L31" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9408,8 +9408,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="176"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="95" t="s">
         <v>100</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="J32" s="84">
         <v>1</v>
       </c>
-      <c r="K32" s="148"/>
+      <c r="K32" s="152"/>
       <c r="L32" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9440,10 +9440,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="168" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="92" t="s">
@@ -9461,7 +9461,7 @@
       <c r="J33" s="84">
         <v>1</v>
       </c>
-      <c r="K33" s="148">
+      <c r="K33" s="152">
         <f>SUM(M33:M37)</f>
         <v>0</v>
       </c>
@@ -9479,8 +9479,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="181"/>
-      <c r="B34" s="165"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="95" t="s">
         <v>65</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="J34" s="84">
         <v>1</v>
       </c>
-      <c r="K34" s="148"/>
+      <c r="K34" s="152"/>
       <c r="L34" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9511,8 +9511,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="181"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="92" t="s">
         <v>103</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="J35" s="84">
         <v>1</v>
       </c>
-      <c r="K35" s="148"/>
+      <c r="K35" s="152"/>
       <c r="L35" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9543,8 +9543,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="165"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="95" t="s">
         <v>104</v>
       </c>
@@ -9560,7 +9560,7 @@
       <c r="J36" s="84">
         <v>1</v>
       </c>
-      <c r="K36" s="148"/>
+      <c r="K36" s="152"/>
       <c r="L36" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9575,8 +9575,8 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A37" s="181"/>
-      <c r="B37" s="165"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="92" t="s">
         <v>105</v>
       </c>
@@ -9592,7 +9592,7 @@
       <c r="J37" s="84">
         <v>1</v>
       </c>
-      <c r="K37" s="148"/>
+      <c r="K37" s="152"/>
       <c r="L37" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9607,10 +9607,10 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -9628,7 +9628,7 @@
       <c r="J38" s="84">
         <v>1</v>
       </c>
-      <c r="K38" s="148">
+      <c r="K38" s="152">
         <f>SUM(M38:M40)</f>
         <v>0</v>
       </c>
@@ -9646,8 +9646,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="165"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="92" t="s">
         <v>108</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="J39" s="84">
         <v>1</v>
       </c>
-      <c r="K39" s="148"/>
+      <c r="K39" s="152"/>
       <c r="L39" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9678,8 +9678,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A40" s="164"/>
-      <c r="B40" s="165"/>
+      <c r="A40" s="171"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="95" t="s">
         <v>109</v>
       </c>
@@ -9695,7 +9695,7 @@
       <c r="J40" s="84">
         <v>1</v>
       </c>
-      <c r="K40" s="148"/>
+      <c r="K40" s="152"/>
       <c r="L40" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9710,10 +9710,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="178" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="92" t="s">
@@ -9731,7 +9731,7 @@
       <c r="J41" s="84">
         <v>1</v>
       </c>
-      <c r="K41" s="148">
+      <c r="K41" s="152">
         <f>SUM(M41:M43)</f>
         <v>0</v>
       </c>
@@ -9749,8 +9749,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A42" s="171"/>
-      <c r="B42" s="173"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="95" t="s">
         <v>95</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="J42" s="84">
         <v>1</v>
       </c>
-      <c r="K42" s="148"/>
+      <c r="K42" s="152"/>
       <c r="L42" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9781,8 +9781,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A43" s="172"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="110" t="s">
         <v>96</v>
       </c>
@@ -9798,7 +9798,7 @@
       <c r="J43" s="84">
         <v>1</v>
       </c>
-      <c r="K43" s="148"/>
+      <c r="K43" s="152"/>
       <c r="L43" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9816,13 +9816,13 @@
       <c r="C44" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="166">
+      <c r="E44" s="167">
         <f>L5/SUM(J6:J15)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
       <c r="I44" s="33" t="str">
         <f>(IF(E44&lt;0.5,"◄",""))</f>
         <v/>
@@ -9842,18 +9842,18 @@
       <c r="C45" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="166">
+      <c r="E45" s="167">
         <f>L16/SUM(J17:J28)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
       <c r="I45" s="33" t="str">
         <f>(IF(E45&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J45" s="175"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="140"/>
       <c r="L45" s="120"/>
     </row>
@@ -9861,18 +9861,18 @@
       <c r="C46" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="166">
+      <c r="E46" s="167">
         <f>L29/SUM(J30:J43)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
       <c r="I46" s="33" t="str">
         <f>(IF(E46&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J46" s="175"/>
+      <c r="J46" s="166"/>
       <c r="K46" s="140"/>
       <c r="L46" s="120"/>
     </row>
@@ -9881,15 +9881,15 @@
         <v>48</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="167" t="str">
+      <c r="E47" s="172" t="str">
         <f>IF(OR(E44&lt;0.5,E45&lt;0.5,E46&lt;0.5),"Tx&lt;50",IF(O44&lt;&gt;36,"Erreur",(K5+K16+K29)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F47" s="167"/>
-      <c r="G47" s="168" t="s">
+      <c r="F47" s="172"/>
+      <c r="G47" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="168"/>
+      <c r="H47" s="173"/>
       <c r="I47" s="51"/>
     </row>
     <row r="48" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -9897,81 +9897,81 @@
         <v>51</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="170" t="s">
+      <c r="E48" s="174"/>
+      <c r="F48" s="174"/>
+      <c r="G48" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="170"/>
+      <c r="H48" s="175"/>
       <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="C49" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="161">
+      <c r="E49" s="192">
         <f>IF(V44&lt;&gt;0,"",E48*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="161"/>
-      <c r="G49" s="162">
+      <c r="F49" s="192"/>
+      <c r="G49" s="169">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H49" s="162"/>
+      <c r="H49" s="169"/>
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A50" s="151" t="s">
+      <c r="A50" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
       <c r="I50" s="53"/>
     </row>
     <row r="51" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="152" t="str">
+      <c r="C51" s="183" t="str">
         <f>(IF(O44&gt;36,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
       <c r="I51" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="153" t="s">
+      <c r="A52" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="185"/>
       <c r="I52" s="56"/>
     </row>
     <row r="53" spans="1:9" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A53" s="155"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="186"/>
       <c r="I53" s="57"/>
     </row>
     <row r="54" spans="1:9" ht="7.5" customHeight="1" thickBot="1">
@@ -9986,57 +9986,57 @@
       <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A55" s="156" t="s">
+      <c r="A55" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="156"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="62"/>
-      <c r="E55" s="157" t="s">
+      <c r="E55" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
       <c r="I55" s="63"/>
     </row>
     <row r="56" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A56" s="158"/>
-      <c r="B56" s="158"/>
+      <c r="A56" s="189"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="64"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A57" s="158"/>
-      <c r="B57" s="158"/>
+      <c r="A57" s="189"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="64"/>
     </row>
     <row r="58" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A58" s="160"/>
-      <c r="B58" s="160"/>
+      <c r="A58" s="191"/>
+      <c r="B58" s="191"/>
       <c r="C58" s="64"/>
     </row>
     <row r="59" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A59" s="158"/>
-      <c r="B59" s="158"/>
+      <c r="A59" s="189"/>
+      <c r="B59" s="189"/>
       <c r="C59" s="64"/>
     </row>
     <row r="60" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
+      <c r="A60" s="180"/>
+      <c r="B60" s="180"/>
       <c r="C60" s="66"/>
-      <c r="E60" s="150">
+      <c r="E60" s="181">
         <v>41892</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
+      <c r="F60" s="181"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="181"/>
       <c r="I60" s="68" t="s">
         <v>61</v>
       </c>
@@ -10047,6 +10047,53 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="E60:H60"/>
     <mergeCell ref="A50:H50"/>
@@ -10061,53 +10108,6 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="K6:K9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
@@ -10211,10 +10211,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="96" t="s">
         <v>25</v>
       </c>
@@ -10248,16 +10248,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="186"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="31"/>
       <c r="J5" s="85">
         <v>0.4</v>
@@ -10276,10 +10276,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="158" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -10297,7 +10297,7 @@
       <c r="J6" s="83">
         <v>1</v>
       </c>
-      <c r="K6" s="189">
+      <c r="K6" s="148">
         <f>SUM(M6:M9)</f>
         <v>0</v>
       </c>
@@ -10316,8 +10316,8 @@
       <c r="Q6" s="86"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="92" t="s">
         <v>65</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="J7" s="83">
         <v>1</v>
       </c>
-      <c r="K7" s="190"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -10348,8 +10348,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
@@ -10365,7 +10365,7 @@
       <c r="J8" s="83">
         <v>1</v>
       </c>
-      <c r="K8" s="190"/>
+      <c r="K8" s="149"/>
       <c r="L8" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -10380,8 +10380,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="92" t="s">
         <v>67</v>
       </c>
@@ -10397,7 +10397,7 @@
       <c r="J9" s="83">
         <v>1</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -10412,10 +10412,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="160" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -10433,7 +10433,7 @@
       <c r="J10" s="83">
         <v>1</v>
       </c>
-      <c r="K10" s="189">
+      <c r="K10" s="148">
         <f>SUM(M10:M12)</f>
         <v>0</v>
       </c>
@@ -10451,8 +10451,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="92" t="s">
         <v>70</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="J11" s="83">
         <v>1</v>
       </c>
-      <c r="K11" s="190"/>
+      <c r="K11" s="149"/>
       <c r="L11" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -10483,8 +10483,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="37" t="s">
         <v>71</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="J12" s="83">
         <v>1</v>
       </c>
-      <c r="K12" s="190"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -10515,10 +10515,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="160" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="92" t="s">
@@ -10536,7 +10536,7 @@
       <c r="J13" s="83">
         <v>1</v>
       </c>
-      <c r="K13" s="189">
+      <c r="K13" s="148">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -10554,8 +10554,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="181"/>
-      <c r="B14" s="177"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="69" t="s">
         <v>74</v>
       </c>
@@ -10571,7 +10571,7 @@
       <c r="J14" s="83">
         <v>1</v>
       </c>
-      <c r="K14" s="190"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -10586,8 +10586,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A15" s="181"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="92" t="s">
         <v>75</v>
       </c>
@@ -10603,7 +10603,7 @@
       <c r="J15" s="83">
         <v>1</v>
       </c>
-      <c r="K15" s="191"/>
+      <c r="K15" s="150"/>
       <c r="L15" s="118">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -10618,16 +10618,16 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="33"/>
       <c r="J16" s="85">
         <v>0.4</v>
@@ -10647,10 +10647,10 @@
       <c r="O16" s="119"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="165" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="93" t="s">
@@ -10668,7 +10668,7 @@
       <c r="J17" s="83">
         <v>1</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="151">
         <f>SUM(M17:M19)</f>
         <v>0</v>
       </c>
@@ -10686,8 +10686,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="182"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="92" t="s">
         <v>78</v>
       </c>
@@ -10703,7 +10703,7 @@
       <c r="J18" s="83">
         <v>1</v>
       </c>
-      <c r="K18" s="192"/>
+      <c r="K18" s="151"/>
       <c r="L18" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -10718,8 +10718,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="182"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="94" t="s">
         <v>79</v>
       </c>
@@ -10735,7 +10735,7 @@
       <c r="J19" s="83">
         <v>1</v>
       </c>
-      <c r="K19" s="192"/>
+      <c r="K19" s="151"/>
       <c r="L19" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -10750,10 +10750,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="160" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="92" t="s">
@@ -10771,7 +10771,7 @@
       <c r="J20" s="83">
         <v>1</v>
       </c>
-      <c r="K20" s="192">
+      <c r="K20" s="151">
         <f>SUM(M20:M22)</f>
         <v>0</v>
       </c>
@@ -10789,8 +10789,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="95" t="s">
         <v>82</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="J21" s="83">
         <v>1</v>
       </c>
-      <c r="K21" s="192"/>
+      <c r="K21" s="151"/>
       <c r="L21" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -10821,8 +10821,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="92" t="s">
         <v>83</v>
       </c>
@@ -10838,7 +10838,7 @@
       <c r="J22" s="83">
         <v>1</v>
       </c>
-      <c r="K22" s="192"/>
+      <c r="K22" s="151"/>
       <c r="L22" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -10853,10 +10853,10 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="160" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="95" t="s">
@@ -10874,7 +10874,7 @@
       <c r="J23" s="83">
         <v>1</v>
       </c>
-      <c r="K23" s="192">
+      <c r="K23" s="151">
         <f>SUM(M23:M24)</f>
         <v>0</v>
       </c>
@@ -10892,8 +10892,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="92" t="s">
         <v>86</v>
       </c>
@@ -10909,7 +10909,7 @@
       <c r="J24" s="83">
         <v>1</v>
       </c>
-      <c r="K24" s="192"/>
+      <c r="K24" s="151"/>
       <c r="L24" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -10924,10 +10924,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="160" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -10945,7 +10945,7 @@
       <c r="J25" s="83">
         <v>1</v>
       </c>
-      <c r="K25" s="192">
+      <c r="K25" s="151">
         <f>SUM(M25:M28)</f>
         <v>0</v>
       </c>
@@ -10963,8 +10963,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="92" t="s">
         <v>89</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="J26" s="83">
         <v>1</v>
       </c>
-      <c r="K26" s="192"/>
+      <c r="K26" s="151"/>
       <c r="L26" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -10995,8 +10995,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="95" t="s">
         <v>90</v>
       </c>
@@ -11012,7 +11012,7 @@
       <c r="J27" s="83">
         <v>1</v>
       </c>
-      <c r="K27" s="192"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -11027,8 +11027,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="92" t="s">
         <v>91</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J28" s="83">
         <v>1</v>
       </c>
-      <c r="K28" s="192"/>
+      <c r="K28" s="151"/>
       <c r="L28" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -11059,16 +11059,16 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="180"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="164"/>
       <c r="I29" s="33"/>
       <c r="J29" s="85">
         <v>0.2</v>
@@ -11088,10 +11088,10 @@
       <c r="O29" s="119"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A30" s="176" t="s">
+      <c r="A30" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="160" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="95" t="s">
@@ -11109,7 +11109,7 @@
       <c r="J30" s="84">
         <v>1</v>
       </c>
-      <c r="K30" s="148">
+      <c r="K30" s="152">
         <f>SUM(M30:M32)</f>
         <v>0</v>
       </c>
@@ -11127,8 +11127,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A31" s="176"/>
-      <c r="B31" s="177"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="92" t="s">
         <v>99</v>
       </c>
@@ -11144,7 +11144,7 @@
       <c r="J31" s="84">
         <v>1</v>
       </c>
-      <c r="K31" s="148"/>
+      <c r="K31" s="152"/>
       <c r="L31" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11159,8 +11159,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="176"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="95" t="s">
         <v>100</v>
       </c>
@@ -11176,7 +11176,7 @@
       <c r="J32" s="84">
         <v>1</v>
       </c>
-      <c r="K32" s="148"/>
+      <c r="K32" s="152"/>
       <c r="L32" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11191,10 +11191,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="168" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="92" t="s">
@@ -11212,7 +11212,7 @@
       <c r="J33" s="84">
         <v>1</v>
       </c>
-      <c r="K33" s="148">
+      <c r="K33" s="152">
         <f>SUM(M33:M37)</f>
         <v>0</v>
       </c>
@@ -11230,8 +11230,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="181"/>
-      <c r="B34" s="165"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="95" t="s">
         <v>65</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="J34" s="84">
         <v>1</v>
       </c>
-      <c r="K34" s="148"/>
+      <c r="K34" s="152"/>
       <c r="L34" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11262,8 +11262,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="181"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="92" t="s">
         <v>103</v>
       </c>
@@ -11279,7 +11279,7 @@
       <c r="J35" s="84">
         <v>1</v>
       </c>
-      <c r="K35" s="148"/>
+      <c r="K35" s="152"/>
       <c r="L35" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11294,8 +11294,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="165"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="95" t="s">
         <v>104</v>
       </c>
@@ -11311,7 +11311,7 @@
       <c r="J36" s="84">
         <v>1</v>
       </c>
-      <c r="K36" s="148"/>
+      <c r="K36" s="152"/>
       <c r="L36" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11326,8 +11326,8 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A37" s="181"/>
-      <c r="B37" s="165"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="92" t="s">
         <v>105</v>
       </c>
@@ -11343,7 +11343,7 @@
       <c r="J37" s="84">
         <v>1</v>
       </c>
-      <c r="K37" s="148"/>
+      <c r="K37" s="152"/>
       <c r="L37" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11358,10 +11358,10 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -11379,7 +11379,7 @@
       <c r="J38" s="84">
         <v>1</v>
       </c>
-      <c r="K38" s="148">
+      <c r="K38" s="152">
         <f>SUM(M38:M40)</f>
         <v>0</v>
       </c>
@@ -11397,8 +11397,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="165"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="92" t="s">
         <v>108</v>
       </c>
@@ -11414,7 +11414,7 @@
       <c r="J39" s="84">
         <v>1</v>
       </c>
-      <c r="K39" s="148"/>
+      <c r="K39" s="152"/>
       <c r="L39" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11429,8 +11429,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A40" s="164"/>
-      <c r="B40" s="165"/>
+      <c r="A40" s="171"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="95" t="s">
         <v>109</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="J40" s="84">
         <v>1</v>
       </c>
-      <c r="K40" s="148"/>
+      <c r="K40" s="152"/>
       <c r="L40" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11461,10 +11461,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="178" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="92" t="s">
@@ -11482,7 +11482,7 @@
       <c r="J41" s="84">
         <v>1</v>
       </c>
-      <c r="K41" s="148">
+      <c r="K41" s="152">
         <f>SUM(M41:M43)</f>
         <v>0</v>
       </c>
@@ -11500,8 +11500,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A42" s="171"/>
-      <c r="B42" s="173"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="95" t="s">
         <v>95</v>
       </c>
@@ -11517,7 +11517,7 @@
       <c r="J42" s="84">
         <v>1</v>
       </c>
-      <c r="K42" s="148"/>
+      <c r="K42" s="152"/>
       <c r="L42" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11532,8 +11532,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A43" s="172"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="110" t="s">
         <v>96</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J43" s="84">
         <v>1</v>
       </c>
-      <c r="K43" s="148"/>
+      <c r="K43" s="152"/>
       <c r="L43" s="118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11567,13 +11567,13 @@
       <c r="C44" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="166">
+      <c r="E44" s="167">
         <f>L5/SUM(J6:J15)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
       <c r="I44" s="33" t="str">
         <f>(IF(E44&lt;0.5,"◄",""))</f>
         <v/>
@@ -11593,18 +11593,18 @@
       <c r="C45" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="166">
+      <c r="E45" s="167">
         <f>L16/SUM(J17:J28)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
       <c r="I45" s="33" t="str">
         <f>(IF(E45&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J45" s="175"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="140"/>
       <c r="L45" s="120"/>
     </row>
@@ -11612,18 +11612,18 @@
       <c r="C46" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="166">
+      <c r="E46" s="167">
         <f>L29/SUM(J30:J43)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
       <c r="I46" s="33" t="str">
         <f>(IF(E46&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J46" s="175"/>
+      <c r="J46" s="166"/>
       <c r="K46" s="140"/>
       <c r="L46" s="120"/>
     </row>
@@ -11632,15 +11632,15 @@
         <v>48</v>
       </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="167" t="str">
+      <c r="E47" s="172" t="str">
         <f>IF(OR(E44&lt;0.5,E45&lt;0.5,E46&lt;0.5),"Tx&lt;50",IF(O44&lt;&gt;36,"Erreur",(K5+K16+K29)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F47" s="167"/>
-      <c r="G47" s="168" t="s">
+      <c r="F47" s="172"/>
+      <c r="G47" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="168"/>
+      <c r="H47" s="173"/>
       <c r="I47" s="51"/>
     </row>
     <row r="48" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -11648,81 +11648,81 @@
         <v>51</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="170" t="s">
+      <c r="E48" s="174"/>
+      <c r="F48" s="174"/>
+      <c r="G48" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="170"/>
+      <c r="H48" s="175"/>
       <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="C49" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="161">
+      <c r="E49" s="192">
         <f>IF(V44&lt;&gt;0,"",E48*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="161"/>
-      <c r="G49" s="162">
+      <c r="F49" s="192"/>
+      <c r="G49" s="169">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H49" s="162"/>
+      <c r="H49" s="169"/>
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A50" s="151" t="s">
+      <c r="A50" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
       <c r="I50" s="53"/>
     </row>
     <row r="51" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="152" t="str">
+      <c r="C51" s="183" t="str">
         <f>(IF(O44&gt;36,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
       <c r="I51" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="153" t="s">
+      <c r="A52" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="185"/>
       <c r="I52" s="56"/>
     </row>
     <row r="53" spans="1:9" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A53" s="155"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="186"/>
       <c r="I53" s="57"/>
     </row>
     <row r="54" spans="1:9" ht="7.5" customHeight="1" thickBot="1">
@@ -11737,57 +11737,57 @@
       <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A55" s="156" t="s">
+      <c r="A55" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="156"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="62"/>
-      <c r="E55" s="157" t="s">
+      <c r="E55" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
       <c r="I55" s="63"/>
     </row>
     <row r="56" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A56" s="158"/>
-      <c r="B56" s="158"/>
+      <c r="A56" s="189"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="64"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A57" s="158"/>
-      <c r="B57" s="158"/>
+      <c r="A57" s="189"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="64"/>
     </row>
     <row r="58" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A58" s="160"/>
-      <c r="B58" s="160"/>
+      <c r="A58" s="191"/>
+      <c r="B58" s="191"/>
       <c r="C58" s="64"/>
     </row>
     <row r="59" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A59" s="158"/>
-      <c r="B59" s="158"/>
+      <c r="A59" s="189"/>
+      <c r="B59" s="189"/>
       <c r="C59" s="64"/>
     </row>
     <row r="60" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
+      <c r="A60" s="180"/>
+      <c r="B60" s="180"/>
       <c r="C60" s="66"/>
-      <c r="E60" s="150">
+      <c r="E60" s="181">
         <v>41892</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
+      <c r="F60" s="181"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="181"/>
       <c r="I60" s="68" t="s">
         <v>61</v>
       </c>
@@ -11798,6 +11798,53 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="E60:H60"/>
     <mergeCell ref="A50:H50"/>
@@ -11812,53 +11859,6 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="K6:K9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
